--- a/assets/upload/format/form_kar_upload.xlsx
+++ b/assets/upload/format/form_kar_upload.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>No.</t>
   </si>
@@ -24,15 +24,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Division</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
     <t>Wilayah</t>
   </si>
   <si>
@@ -93,141 +84,122 @@
     <t>Nomor PKWT</t>
   </si>
   <si>
-    <t>Promosi Jabatan</t>
-  </si>
-  <si>
-    <t>Mutasi Jabatan</t>
-  </si>
-  <si>
-    <t>Demosi Jabatan</t>
-  </si>
-  <si>
     <t>Employment Status</t>
   </si>
   <si>
-    <t>Company</t>
+    <t>Kelompok Jabatan</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Head Office</t>
+  </si>
+  <si>
+    <t>Laki-Laki</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>BLOK KAMIS, RT 004/RW 002, KEL. MAJA UTARA, KEC. MAJA</t>
+  </si>
+  <si>
+    <t>0821-1285-0847</t>
+  </si>
+  <si>
+    <t>a@gmail.com</t>
+  </si>
+  <si>
+    <t>3175042312881012</t>
+  </si>
+  <si>
+    <t>3175042312881088</t>
+  </si>
+  <si>
+    <t>000124567891</t>
+  </si>
+  <si>
+    <t>120J12345</t>
+  </si>
+  <si>
+    <t>0001G31219800</t>
+  </si>
+  <si>
+    <t>246155097024000</t>
+  </si>
+  <si>
+    <t>Bank Central Asia</t>
+  </si>
+  <si>
+    <t>6930347998</t>
+  </si>
+  <si>
+    <t>TK/0</t>
+  </si>
+  <si>
+    <t>LAJANG</t>
+  </si>
+  <si>
+    <t>Permanent Employee</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>Junior Analyst</t>
+  </si>
+  <si>
+    <t>Dasep</t>
+  </si>
+  <si>
+    <t>Employee No / NPK</t>
+  </si>
+  <si>
+    <t>Education Join</t>
+  </si>
+  <si>
+    <t>Education Update</t>
+  </si>
+  <si>
+    <t>SMA</t>
+  </si>
+  <si>
+    <t>Karir</t>
+  </si>
+  <si>
+    <t>Alamat KTP</t>
+  </si>
+  <si>
+    <t>Tempat Lahir</t>
+  </si>
+  <si>
+    <t>Kontak Darurat</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Priuk Jakarta Utara</t>
+  </si>
+  <si>
+    <t>01212121212</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
   </si>
   <si>
     <t>Join Date</t>
-  </si>
-  <si>
-    <t>Length of service</t>
-  </si>
-  <si>
-    <t>Kelompok Jabatan</t>
-  </si>
-  <si>
-    <t>Gol KJ</t>
-  </si>
-  <si>
-    <t>Latest Promotion</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>BOD</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>PDCA</t>
-  </si>
-  <si>
-    <t>Head Office</t>
-  </si>
-  <si>
-    <t>Laki-Laki</t>
-  </si>
-  <si>
-    <t>Single</t>
-  </si>
-  <si>
-    <t>BLOK KAMIS, RT 004/RW 002, KEL. MAJA UTARA, KEC. MAJA</t>
-  </si>
-  <si>
-    <t>0821-1285-0847</t>
-  </si>
-  <si>
-    <t>a@gmail.com</t>
-  </si>
-  <si>
-    <t>3175042312881012</t>
-  </si>
-  <si>
-    <t>3175042312881088</t>
-  </si>
-  <si>
-    <t>000124567891</t>
-  </si>
-  <si>
-    <t>120J12345</t>
-  </si>
-  <si>
-    <t>0001G31219800</t>
-  </si>
-  <si>
-    <t>246155097024000</t>
-  </si>
-  <si>
-    <t>Bank Central Asia</t>
-  </si>
-  <si>
-    <t>6930347998</t>
-  </si>
-  <si>
-    <t>TK/0</t>
-  </si>
-  <si>
-    <t>LAJANG</t>
-  </si>
-  <si>
-    <t>Permanent Employee</t>
-  </si>
-  <si>
-    <t>SPA</t>
-  </si>
-  <si>
-    <t>4years9months</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>Junior Analyst</t>
-  </si>
-  <si>
-    <t>3E-4D</t>
-  </si>
-  <si>
-    <t>01 Januari 2017</t>
-  </si>
-  <si>
-    <t>Dasep</t>
-  </si>
-  <si>
-    <t>Employee No / NPK</t>
-  </si>
-  <si>
-    <t>Education Join</t>
-  </si>
-  <si>
-    <t>Education Update</t>
-  </si>
-  <si>
-    <t>SMA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,28 +220,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -278,18 +228,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Verdana"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Verdana"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,12 +252,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,57 +290,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,282 +634,247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="52.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.42578125" style="1" customWidth="1"/>
-    <col min="35" max="35" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:32">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI1" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>34</v>
+      <c r="AC1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF1" s="17" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="2" customFormat="1">
-      <c r="A2" s="15">
+    <row r="2" spans="1:32" s="15" customFormat="1">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="7">
         <v>123456</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="9">
+        <v>36251</v>
+      </c>
+      <c r="J2" s="10">
+        <v>51</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="T2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="U2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="V2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="W2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="X2" s="13">
+        <v>123456</v>
+      </c>
+      <c r="Y2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="Z2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="17">
-        <v>35339</v>
-      </c>
-      <c r="L2" s="13">
-        <v>51</v>
-      </c>
-      <c r="M2" s="13" t="s">
+      <c r="AB2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="X2" s="12" t="s">
+      <c r="AC2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="AD2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="Z2" s="12">
-        <v>123456</v>
-      </c>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="10" t="s">
+      <c r="AE2" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="AE2" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF2" s="18">
-        <v>42461</v>
-      </c>
-      <c r="AG2" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH2" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI2" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK2" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL2" s="10" t="s">
-        <v>61</v>
+      <c r="AF2" s="19">
+        <v>41955</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/assets/upload/format/form_kar_upload.xlsx
+++ b/assets/upload/format/form_kar_upload.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
   <si>
     <t>No.</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Permanent Employee</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
     <t>Junior Analyst</t>
   </si>
   <si>
@@ -159,15 +156,9 @@
     <t>Education Join</t>
   </si>
   <si>
-    <t>Education Update</t>
-  </si>
-  <si>
     <t>SMA</t>
   </si>
   <si>
-    <t>Karir</t>
-  </si>
-  <si>
     <t>Alamat KTP</t>
   </si>
   <si>
@@ -177,9 +168,6 @@
     <t>Kontak Darurat</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
     <t>Priuk Jakarta Utara</t>
   </si>
   <si>
@@ -190,6 +178,84 @@
   </si>
   <si>
     <t>Join Date</t>
+  </si>
+  <si>
+    <t>Jurusan Pendidikan</t>
+  </si>
+  <si>
+    <t>Tahun Lulus</t>
+  </si>
+  <si>
+    <t>Nama Sekolah / Kampus</t>
+  </si>
+  <si>
+    <t>IPA</t>
+  </si>
+  <si>
+    <t>SMK DWIPA</t>
+  </si>
+  <si>
+    <t>Murry</t>
+  </si>
+  <si>
+    <t>Head Offie</t>
+  </si>
+  <si>
+    <t>Lodan Dalam II C RT 06 / RW 08 KEL.ANCOL JAKARTA UTARA</t>
+  </si>
+  <si>
+    <t>Bandung</t>
+  </si>
+  <si>
+    <t>0812-1212-2244</t>
+  </si>
+  <si>
+    <t>murrry@gmail.com</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>3175042312881111</t>
+  </si>
+  <si>
+    <t>3175042312881089</t>
+  </si>
+  <si>
+    <t>000124567892</t>
+  </si>
+  <si>
+    <t>120J12344</t>
+  </si>
+  <si>
+    <t>0001G31219801</t>
+  </si>
+  <si>
+    <t>246155097024001</t>
+  </si>
+  <si>
+    <t>6930347991</t>
+  </si>
+  <si>
+    <t>KAWIN</t>
+  </si>
+  <si>
+    <t>SMK</t>
+  </si>
+  <si>
+    <t>Operational</t>
+  </si>
+  <si>
+    <t>Ancol Jakarta Utara</t>
+  </si>
+  <si>
+    <t>0121212121</t>
+  </si>
+  <si>
+    <t>IPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMAN 1 </t>
   </si>
 </sst>
 </file>
@@ -197,7 +263,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -293,7 +359,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -315,7 +381,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -331,11 +397,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -653,7 +732,7 @@
     <col min="9" max="9" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" style="5" bestFit="1" customWidth="1"/>
@@ -667,21 +746,22 @@
     <col min="24" max="24" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="5"/>
+    <col min="27" max="27" width="19.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:33">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -699,7 +779,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>6</v>
@@ -753,28 +833,31 @@
         <v>22</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>50</v>
+      <c r="AD1" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF1" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="15" customFormat="1">
+    <row r="2" spans="1:33" s="15" customFormat="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -782,7 +865,7 @@
         <v>123456</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>25</v>
@@ -797,7 +880,7 @@
         <v>28</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I2" s="9">
         <v>36251</v>
@@ -805,7 +888,7 @@
       <c r="J2" s="10">
         <v>51</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>29</v>
       </c>
       <c r="L2" s="11" t="s">
@@ -851,25 +934,129 @@
         <v>41</v>
       </c>
       <c r="Z2" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="AB2" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD2" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE2" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF2" s="19">
+      <c r="AB2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC2" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD2" s="18">
         <v>41955</v>
+      </c>
+      <c r="AE2" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>2017</v>
+      </c>
+      <c r="AG2" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" s="23">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23">
+        <v>220220</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="9">
+        <v>35898</v>
+      </c>
+      <c r="J3" s="23">
+        <v>21</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="X3" s="13">
+        <v>123457</v>
+      </c>
+      <c r="Y3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z3" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA3" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB3" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC3" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD3" s="18">
+        <v>40853</v>
+      </c>
+      <c r="AE3" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF3" s="23">
+        <v>2015</v>
+      </c>
+      <c r="AG3" s="24" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/assets/upload/format/form_kar_upload.xlsx
+++ b/assets/upload/format/form_kar_upload.xlsx
@@ -715,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AE3" sqref="AE3"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1069,7 +1069,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>

--- a/assets/upload/format/form_kar_upload.xlsx
+++ b/assets/upload/format/form_kar_upload.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\master_ho\assets\upload\format\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20052" windowHeight="7956"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
   <si>
     <t>No.</t>
   </si>
@@ -256,16 +261,22 @@
   </si>
   <si>
     <t xml:space="preserve">SMAN 1 </t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>sigap.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,6 +436,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -471,7 +490,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,9 +522,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -537,6 +557,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -712,51 +733,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="Z15" sqref="Z15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="19.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="5"/>
+    <col min="22" max="22" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -856,8 +877,11 @@
       <c r="AG1" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" s="15" customFormat="1">
+    <row r="2" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -957,8 +981,11 @@
       <c r="AG2" s="19" t="s">
         <v>58</v>
       </c>
+      <c r="AH2" s="19" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="23">
         <v>2</v>
       </c>
@@ -1057,6 +1084,9 @@
       </c>
       <c r="AG3" s="24" t="s">
         <v>79</v>
+      </c>
+      <c r="AH3" s="19" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1066,26 +1096,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
